--- a/biology/Botanique/Apodanthera_undulata/Apodanthera_undulata.xlsx
+++ b/biology/Botanique/Apodanthera_undulata/Apodanthera_undulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apodanthera undulata est une espèce de plantes à fleurs de la famille des Cucurbitaceae.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante malodorante, rampante, a de longues tiges qui atteignent 3 m de longueur, mais seul le feuillage peut s'élever, jusqu'à 20 cm au-dessus du sol. Ces tiges portent des vrilles ainsi que des feuilles velues, grisâtres, en forme de rein (réniformes). Ces feuilles, plus larges que longues, mesurent de 5 à 15 cm de largeur et sont attachées à la tige par un pétiole. Leur marge est ondulée, mais aussi le plus souvent légèrement lobée ou dentée[1].
-Appareil reproducteur
-La floraison a lieu entre mai et septembre.
-L'inflorescence est une fleur jaune en forme d'entonnoir, isolée à l'aisselle des feuilles. Chaque fleur mesure 3,8 cm de large. La corolle est composée de 5 pétales soudés à leur base. Certains ont 3 étamines mais pas d'ovaire fonctionnel, d'autres ont un ovaire fonctionnel mais pas d'étamines[1].
-Le fruit est un péponide ovale de 6,3 à 10 cm de long, portant des côtes longitudinales[1]. Son goût, très amer, le rend impropre à la consommation.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante malodorante, rampante, a de longues tiges qui atteignent 3 m de longueur, mais seul le feuillage peut s'élever, jusqu'à 20 cm au-dessus du sol. Ces tiges portent des vrilles ainsi que des feuilles velues, grisâtres, en forme de rein (réniformes). Ces feuilles, plus larges que longues, mesurent de 5 à 15 cm de largeur et sont attachées à la tige par un pétiole. Leur marge est ondulée, mais aussi le plus souvent légèrement lobée ou dentée.
 </t>
         </is>
       </c>
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mai et septembre.
+L'inflorescence est une fleur jaune en forme d'entonnoir, isolée à l'aisselle des feuilles. Chaque fleur mesure 3,8 cm de large. La corolle est composée de 5 pétales soudés à leur base. Certains ont 3 étamines mais pas d'ovaire fonctionnel, d'autres ont un ovaire fonctionnel mais pas d'étamines.
+Le fruit est un péponide ovale de 6,3 à 10 cm de long, portant des côtes longitudinales. Son goût, très amer, le rend impropre à la consommation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apodanthera_undulata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apodanthera_undulata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vit dans le sud-ouest des États-Unis et au Mexique. Sa limite nord va de l'Arizona au Texas.
 Elle pousse sur les dunes de sable, ou sur les pentes et replats gravillonneux des zones arides.
